--- a/src/views/apps/freshlist/UploadFormats/Payment.xlsx
+++ b/src/views/apps/freshlist/UploadFormats/Payment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>partyId</t>
   </si>
@@ -34,9 +34,6 @@
     <t>userId</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>Bank</t>
-  </si>
-  <si>
-    <t>YASH</t>
   </si>
   <si>
     <t>by cheque 1254</t>
@@ -88,6 +82,24 @@
   </si>
   <si>
     <t>cash to officedsfs</t>
+  </si>
+  <si>
+    <t>transporterId</t>
+  </si>
+  <si>
+    <t>OPQR3456</t>
+  </si>
+  <si>
+    <t>OPQR3457</t>
+  </si>
+  <si>
+    <t>OPQR3458</t>
+  </si>
+  <si>
+    <t>OPQR3451</t>
+  </si>
+  <si>
+    <t>OPQR3452</t>
   </si>
 </sst>
 </file>
@@ -513,25 +525,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="6" customWidth="1"/>
-    <col min="6" max="7" width="14.375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="3" max="4" width="19.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="6" customWidth="1"/>
+    <col min="7" max="8" width="14.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,176 +551,208 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
         <v>45506</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1281</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5">
-        <v>1281</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>45506</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1423</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1281</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
-        <v>45507</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>45506</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1423</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
+        <v>45507</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
         <v>1500</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4">
-        <v>45506</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1700</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>45506</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1523</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1700</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>45506</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1523</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
+        <v>45506</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1525</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1525</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B2 H2 E3 E2" numberStoredAsText="1"/>
+    <ignoredError sqref="I2 F4 F2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>